--- a/Project Management/Record Of Tasks.xlsx
+++ b/Project Management/Record Of Tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agoraisbarcelonaedu-my.sharepoint.com/personal/nicolas_desaintaubert_agoraisbarcelona_edu_es/Documents/material/IB 2/Internal Example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SERVERMS30\usuarios$\secundaria\nicolas.philippe\Documents\GitHub\internal\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="8_{1FBE889D-588C-401A-B21B-9585BA3248C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B12FB1DC-14A2-42D0-BB0E-D990085F97CA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356A5CBB-58A7-419A-95E2-FBA2CE35E426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7A099F99-E375-42D1-8638-50EE409111F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="169">
   <si>
     <t>Task</t>
   </si>
@@ -71,9 +71,6 @@
     <t>01/15/2025</t>
   </si>
   <si>
-    <t>Requirement Gathering</t>
-  </si>
-  <si>
     <t>Gather detailed requirements and expectations</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>Design Phase</t>
   </si>
   <si>
-    <t>Create game design, including UI/UX, game views, player selection, and game logic</t>
-  </si>
-  <si>
     <t>3 weeks</t>
   </si>
   <si>
@@ -288,10 +282,6 @@
   </si>
   <si>
     <t>parallel with 6</t>
-  </si>
-  <si>
-    <t>UML Domain Model,
-Sketch and Navigation Model, Chesters Logic Algorithm, Tic Tac Toe Logic Algorithm</t>
   </si>
   <si>
     <r>
@@ -334,37 +324,6 @@
     <t>08/19/2025</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> success criteria</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> scenario</t>
-    </r>
-  </si>
-  <si>
     <t>Agil+15:36e Methodology</t>
   </si>
   <si>
@@ -726,26 +685,359 @@
     <t>A mockup that will acts as a database access  is implemented in JAVA to simulate database access in JAVA</t>
   </si>
   <si>
-    <t>4 Interviews with customer</t>
-  </si>
-  <si>
     <t>Discuss requirements</t>
   </si>
   <si>
-    <t>refine use cases, requirement list and data flow chart</t>
-  </si>
-  <si>
     <t>today date</t>
   </si>
   <si>
     <t>1 hour</t>
+  </si>
+  <si>
+    <t>1 hour each</t>
+  </si>
+  <si>
+    <t>Player Interaction</t>
+  </si>
+  <si>
+    <t>Game  - brainstorming</t>
+  </si>
+  <si>
+    <t>Data - brainstorming</t>
+  </si>
+  <si>
+    <t>Discussion over game limitation, scoring, and selection, use cases</t>
+  </si>
+  <si>
+    <t>Navigation Ideation - Brainstorming</t>
+  </si>
+  <si>
+    <t>Skecth defining only the main views and basic navigation</t>
+  </si>
+  <si>
+    <t>Detail Sketch of each views, requirement list actualized</t>
+  </si>
+  <si>
+    <t>View Detail - Brainstorming (3 sessions)</t>
+  </si>
+  <si>
+    <t>Test Plan Ideation</t>
+  </si>
+  <si>
+    <t>Discuss on Data that must be stored for functional or business needs, review of data privacy needs</t>
+  </si>
+  <si>
+    <t>Test plan draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour </t>
+  </si>
+  <si>
+    <t>Test Plan Review With Client</t>
+  </si>
+  <si>
+    <t>Test Plan Discussed with client</t>
+  </si>
+  <si>
+    <t>Test plan improved</t>
+  </si>
+  <si>
+    <t>Test plan proposal</t>
+  </si>
+  <si>
+    <t>Test Plan Refinement</t>
+  </si>
+  <si>
+    <t>Test Plan Ideation study over the success criteria</t>
+  </si>
+  <si>
+    <t>Test Plan  Refinement</t>
+  </si>
+  <si>
+    <t>Test Plan Validation with client</t>
+  </si>
+  <si>
+    <t>Test Plan Validation Per client</t>
+  </si>
+  <si>
+    <t>Test plan defined and validated by client</t>
+  </si>
+  <si>
+    <t>Database Design</t>
+  </si>
+  <si>
+    <t>Design playe and game database and scoring system</t>
+  </si>
+  <si>
+    <t>UML Domain Model,
+Chesters Logic Algorithm, Tic Tac Toe Logic Algorithm</t>
+  </si>
+  <si>
+    <t>game views, player selection, and game logic</t>
+  </si>
+  <si>
+    <t>Design Logic</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>DFD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and constraints, scope of interaction, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>use case</t>
+    </r>
+  </si>
+  <si>
+    <t>Requirement Gathering with stakeholder</t>
+  </si>
+  <si>
+    <t>Discuss requirements and constraint for players interaction</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>DFD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Domain Model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ideation. Data we want to keep in DB are defined, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Data privacy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>taken in account in</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> requirement list</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Discussion over game limitation, scoring, and selection,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> use cases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and  requirement list</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> success criteria </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>draft,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> draft</t>
+    </r>
+  </si>
+  <si>
+    <t>Check Requirement against Success Criteria and solution</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>success criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> validated, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>requirement list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> validated, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>use cases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> validated, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  validated</t>
+    </r>
+  </si>
+  <si>
+    <t>MVP Scope - brainstorming</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,6 +1091,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -883,13 +1182,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1224,10 +1523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D9F25E-CBEA-4A45-8035-2BB081C2D9E7}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
@@ -1284,7 +1583,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>9</v>
@@ -1293,826 +1592,1017 @@
         <v>10</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="99" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="F6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="18" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" s="18" customFormat="1" ht="99" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" s="18" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" s="18" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" s="18" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" s="18" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" s="18" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" s="18" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="18" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" s="18" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="10">
+        <v>45780</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    </row>
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="10">
-        <v>45780</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="C20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="16" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="F20" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="16" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="16" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="16" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="D22" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="10">
-        <v>45843</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="10">
-        <v>45874</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="10">
-        <v>45905</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="F22" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="10">
+        <v>45843</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="10">
+        <v>45874</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="10">
+        <v>45905</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="9" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="9" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B33" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="F33" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="9" customFormat="1" ht="132" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="9" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="C35" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="9" customFormat="1" ht="99" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="C36" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="9" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="9" customFormat="1" ht="99" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="9" customFormat="1" ht="198" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="9" customFormat="1" ht="132" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="9" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" ht="99" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="9" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="9" customFormat="1" ht="99" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" ht="198" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="8" t="s">
+      <c r="C42" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="9" customFormat="1" ht="99" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="14">
-        <v>45779</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="9" customFormat="1" ht="99" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="14">
+        <v>45779</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="14">
+        <v>45993</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B52" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C52" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="9" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="14">
+        <v>45780</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" s="14">
-        <v>45993</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="9" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="14">
-        <v>45780</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F46" s="8" t="s">
+      <c r="D57" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="14">
+        <v>45662</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="8" t="s">
+    <row r="58" spans="1:7" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="14">
+        <v>45693</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" s="14">
-        <v>45662</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E50" s="14">
-        <v>45693</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
